--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809886.4504886005</v>
+        <v>-812735.8726779288</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>343.823841895969</v>
+        <v>302.6016658934141</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>273.9755318879826</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.9217186894159</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>269.0275088281772</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>149.857256236194</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>20.82281528598332</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.638629916822</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>65.48147627230938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>137.9265290888237</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>147.1707390234335</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.80469379211468</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>115.7063133373722</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892451</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>170.0607995140917</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>203.7428910438523</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>257.7339841265554</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>13.94435783112388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>237.112991221909</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.73433514019965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1901.149089420759</v>
+        <v>840.2619261664579</v>
       </c>
       <c r="C2" t="n">
-        <v>1532.186572480347</v>
+        <v>840.2619261664579</v>
       </c>
       <c r="D2" t="n">
-        <v>1532.186572480347</v>
+        <v>840.2619261664579</v>
       </c>
       <c r="E2" t="n">
-        <v>1146.398319882103</v>
+        <v>840.2619261664579</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1990.466856467471</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1617.001098206391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1901.149089420759</v>
+        <v>1226.86176623058</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.683675137274</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.683675137274</v>
+        <v>966.622729332398</v>
       </c>
       <c r="D5" t="n">
-        <v>957.4179765305237</v>
+        <v>966.622729332398</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>966.622729332398</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>555.6368245427905</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.283515201396</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="C7" t="n">
-        <v>304.5083130726405</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="D7" t="n">
-        <v>304.5083130726405</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="E7" t="n">
-        <v>304.5083130726405</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>157.6183655747301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5691597344913</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>405.2609724030931</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>948.3796004312815</v>
+        <v>940.4838021922458</v>
       </c>
       <c r="C8" t="n">
-        <v>579.4170834908698</v>
+        <v>571.5212852518341</v>
       </c>
       <c r="D8" t="n">
-        <v>579.4170834908698</v>
+        <v>213.2555866450836</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926256</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2392.276741370168</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2061.213854026597</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="W8" t="n">
-        <v>1708.445198756483</v>
+        <v>2090.688732493259</v>
       </c>
       <c r="X8" t="n">
-        <v>1334.979440495403</v>
+        <v>1717.222974232179</v>
       </c>
       <c r="Y8" t="n">
-        <v>1334.979440495403</v>
+        <v>1327.083642256368</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1385.11694267384</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1583.773684326505</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2133.209693079228</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2557.177461560065</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>571.203624175805</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>402.2674412478981</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>252.1508018355624</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>252.1508018355624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>105.260854337652</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>105.260854337652</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>105.260854337652</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>571.203624175805</v>
+        <v>923.3499417167701</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.203624175805</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>822.8075068028749</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>672.6908673905391</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>524.777773808146</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>377.8878263102356</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>210.6917270251155</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199801</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.462102832032</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.044932795071</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753273</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2058.30734919087</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1392.965472922287</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.975922024269</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.1833428807391</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2273.199413378161</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,10 +6239,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1448.877781913384</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1159.460611876424</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>931.4710609784063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6704,22 +6704,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7257,16 +7257,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7725,19 +7725,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,16 +7819,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>275.9570617099729</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.94306717106267</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>63.05220384574243</v>
+        <v>104.2743798482973</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.58839950885167</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.07684380973626</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892455</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>13.66255928343594</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>28.78901421003559</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>15.02465210191903</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1195420.786262857</v>
+        <v>1195420.786262858</v>
       </c>
     </row>
     <row r="7">
@@ -26323,13 +26323,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26344,7 +26344,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
         <v>225786.486712678</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127713.0035258958</v>
+        <v>127713.0035258957</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,34 +26424,34 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682758</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682763</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682754</v>
-      </c>
       <c r="L4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977621</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614362.6058200956</v>
+        <v>-614722.6888358132</v>
       </c>
       <c r="C6" t="n">
         <v>-66995.0068137648</v>
       </c>
       <c r="D6" t="n">
-        <v>-222798.8129075598</v>
+        <v>-222798.8129075597</v>
       </c>
       <c r="E6" t="n">
-        <v>-655887.4428566445</v>
+        <v>-655922.1807820802</v>
       </c>
       <c r="F6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987263</v>
       </c>
       <c r="G6" t="n">
-        <v>115165.2485241619</v>
+        <v>115130.510598726</v>
       </c>
       <c r="H6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987263</v>
       </c>
       <c r="I6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987262</v>
       </c>
       <c r="J6" t="n">
-        <v>-61257.97066843133</v>
+        <v>-61292.70859386681</v>
       </c>
       <c r="K6" t="n">
-        <v>115165.248524162</v>
+        <v>115130.5105987262</v>
       </c>
       <c r="L6" t="n">
         <v>89526.25703535473</v>
       </c>
       <c r="M6" t="n">
-        <v>-15254.53567907203</v>
+        <v>-15254.53567907211</v>
       </c>
       <c r="N6" t="n">
         <v>108953.9750289864</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.2846474920397</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>75.26543682943037</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.31621996663773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>17.49548950841381</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>232.0731138360678</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>392.9613547348117</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.6711723422289</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>146.6640626777095</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>244.0038409834381</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>103.9840471988671</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>72.4618640873023</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>96.48721104172748</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,31 +31835,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,7 +32081,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>208.6096528357816</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>673.7140351260975</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>194.5189324111251</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111251</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,10 +33977,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,22 +34445,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>472.254246449349</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.90967444578689</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>66.47561891376326</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>531.5800012040792</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>55.9645526312509</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>55.9645526312509</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
